--- a/data/female_census_occupations.xlsx
+++ b/data/female_census_occupations.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
-    <t>Female Employment</t>
+    <t>Female Occupation</t>
   </si>
   <si>
     <t>Totale Estimate</t>
@@ -22,7 +22,7 @@
     <t>Total MOE3</t>
   </si>
   <si>
-    <t>Total Estimate</t>
+    <t>Total Percent</t>
   </si>
   <si>
     <t>White Estimate</t>
@@ -1226,18 +1226,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1495,7 +1498,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1507,7 +1510,7 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1519,7 +1522,7 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1531,7 +1534,7 @@
       <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1543,7 +1546,7 @@
       <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -1551,3967 +1554,3967 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>5.9201492E7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>57941.66</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>47.0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>3.9609815E7</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>41474.69</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>31.5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>7562704.0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>13657.69</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>6.0</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>3539629.0</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="7">
         <v>8508.64</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <v>2.8</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="7">
         <v>8489344.0</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="7">
         <v>15251.81</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <v>6.7</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2001217.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>13568.6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>25.1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>0.1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>1341307.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>8857.5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>16.8</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>0.1</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>175886.0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>3609.6</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>2.2</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <v>345535.0</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>4584.4</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <v>4.3</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="8">
         <v>0.1</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="7">
         <v>138489.0</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="7">
         <v>3144.3</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="8">
         <v>1.7</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>1038235.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>8515.4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>25.2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>0.1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>667936.0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>5988.5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>16.2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>0.1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>105496.0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>2506.9</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>2.6</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>0.1</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>199878.0</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>3600.3</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="8">
         <v>4.9</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="8">
         <v>0.1</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="7">
         <v>64925.0</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="7">
         <v>2073.2</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="8">
         <v>1.6</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>153170.0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>2755.8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>28.1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>0.4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>114530.0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>2282.2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>21.0</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="13">
         <v>0.4</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>12885.0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>944.4</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="13">
         <v>2.4</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="13">
         <v>0.2</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>16675.0</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <v>946.9</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="13">
         <v>3.1</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="13">
         <v>0.2</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="12">
         <v>9075.0</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="12">
         <v>639.1</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="13">
         <v>1.7</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>4350.0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>530.3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>27.4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>2.8</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>2920.0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>398.3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>18.4</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="13">
         <v>2.3</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="12">
         <v>495.0</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>261.8</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <v>3.1</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>1.6</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>740.0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="12">
         <v>153.4</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="13">
         <v>4.7</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="13">
         <v>0.9</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="12">
         <v>195.0</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="12">
         <v>94.9</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="13">
         <v>1.2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>178580.0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>2914.7</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>37.7</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>0.5</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>115515.0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>2367.0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>24.4</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="13">
         <v>0.4</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="12">
         <v>20670.0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="12">
         <v>1101.3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>4.4</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>0.2</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>29710.0</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <v>1131.4</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="13">
         <v>6.3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="13">
         <v>0.2</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="12">
         <v>12685.0</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="12">
         <v>724.6</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="13">
         <v>2.7</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>12735.0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>802.3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>21.2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>1.2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>8390.0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>564.1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>14.0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="13">
         <v>0.9</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="12">
         <v>2240.0</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="12">
         <v>343.8</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="13">
         <v>3.7</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>0.6</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <v>1190.0</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="12">
         <v>232.6</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="13">
         <v>2.0</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="13">
         <v>0.4</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="12">
         <v>915.0</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="12">
         <v>243.7</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="13">
         <v>1.5</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>89465.0</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>2055.8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>21.7</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>0.4</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>57055.0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>1565.3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>13.9</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <v>0.3</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="12">
         <v>6560.0</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="12">
         <v>666.1</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <v>1.6</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>0.2</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="12">
         <v>22360.0</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="12">
         <v>1040.8</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="13">
         <v>5.4</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="13">
         <v>0.2</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="12">
         <v>3490.0</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="12">
         <v>425.9</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="13">
         <v>0.8</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>213390.0</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>3112.0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>20.3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>0.3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>103825.0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>2098.6</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>9.9</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="13">
         <v>0.2</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="12">
         <v>15915.0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="12">
         <v>931.3</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="13">
         <v>1.5</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>0.1</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="12">
         <v>84445.0</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="12">
         <v>1996.5</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="13">
         <v>8.0</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="13">
         <v>0.2</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="12">
         <v>9205.0</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="12">
         <v>712.5</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="13">
         <v>0.9</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>57340.0</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>1898.0</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>34.8</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>0.9</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>44445.0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>1544.0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>27.0</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="13">
         <v>0.7</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="12">
         <v>3220.0</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="12">
         <v>432.1</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="13">
         <v>2.0</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="13">
         <v>0.3</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="12">
         <v>6010.0</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="12">
         <v>529.0</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="13">
         <v>3.6</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="13">
         <v>0.3</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="12">
         <v>3670.0</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="12">
         <v>517.6</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="13">
         <v>2.2</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>135130.0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>2504.3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>25.6</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>0.4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>91295.0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>1814.6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="13">
         <v>17.3</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="13">
         <v>0.3</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="12">
         <v>21000.0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="12">
         <v>1222.0</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="13">
         <v>4.0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="13">
         <v>0.2</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="12">
         <v>11360.0</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="12">
         <v>880.2</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="13">
         <v>2.2</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="13">
         <v>0.2</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="12">
         <v>11475.0</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="12">
         <v>772.2</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="13">
         <v>2.2</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>40930.0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>1415.4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>38.2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>1.0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>28220.0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12">
         <v>1079.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="13">
         <v>26.3</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="13">
         <v>0.9</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12">
         <v>3275.0</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="12">
         <v>435.2</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="13">
         <v>3.1</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="13">
         <v>0.4</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="12">
         <v>6525.0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="12">
         <v>524.2</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="13">
         <v>6.1</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="13">
         <v>0.5</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="12">
         <v>2910.0</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="12">
         <v>356.6</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="13">
         <v>2.7</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>37780.0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>1345.3</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>18.7</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>0.6</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>26760.0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <v>1228.4</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>13.2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="13">
         <v>0.5</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="12">
         <v>4010.0</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="12">
         <v>418.1</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="13">
         <v>2.0</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="13">
         <v>0.2</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="12">
         <v>4220.0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="12">
         <v>433.7</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="13">
         <v>2.1</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="13">
         <v>0.2</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="12">
         <v>2795.0</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="12">
         <v>342.6</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="13">
         <v>1.4</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>8160.0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>538.7</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>8.2</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>0.5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>5190.0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>433.3</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="13">
         <v>5.2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="13">
         <v>0.4</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="12">
         <v>705.0</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="12">
         <v>201.5</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="13">
         <v>0.7</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="13">
         <v>0.2</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="12">
         <v>1820.0</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="12">
         <v>261.0</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="13">
         <v>1.8</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="13">
         <v>0.3</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="12">
         <v>445.0</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="12">
         <v>135.8</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="13">
         <v>0.4</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>107210.0</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>2377.3</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <v>23.2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13">
         <v>0.5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="12">
         <v>69790.0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>1711.3</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="13">
         <v>15.1</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="13">
         <v>0.3</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="12">
         <v>14530.0</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="12">
         <v>846.4</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="13">
         <v>3.1</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="13">
         <v>0.2</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="12">
         <v>14820.0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="12">
         <v>936.0</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="13">
         <v>3.2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="13">
         <v>0.2</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="12">
         <v>8070.0</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="12">
         <v>734.4</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="13">
         <v>1.7</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>93432.0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>2187.8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>46.7</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>0.7</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>60552.0</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>1708.8</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>30.3</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>0.7</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <v>11613.0</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>827.1</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="8">
         <v>5.8</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="8">
         <v>0.4</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>14080.0</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="7">
         <v>796.1</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="8">
         <v>7.0</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="8">
         <v>0.4</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="7">
         <v>7187.0</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="7">
         <v>702.8</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="8">
         <v>3.6</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="9">
         <v>0.3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>8130.0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>547.4</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <v>33.4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>1.7</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="12">
         <v>5960.0</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>519.9</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="13">
         <v>24.5</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="13">
         <v>1.7</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="12">
         <v>195.0</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="12">
         <v>101.7</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="13">
         <v>0.8</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="13">
         <v>0.4</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="12">
         <v>1755.0</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="12">
         <v>248.0</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="13">
         <v>7.2</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="13">
         <v>1.0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="12">
         <v>220.0</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="12">
         <v>115.2</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="13">
         <v>0.9</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>63645.0</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>1637.6</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>49.1</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>0.9</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="12">
         <v>41995.0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>1333.4</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <v>32.4</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="13">
         <v>0.9</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="12">
         <v>9560.0</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="12">
         <v>729.7</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="13">
         <v>7.4</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="13">
         <v>0.5</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="12">
         <v>6595.0</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="12">
         <v>490.1</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="13">
         <v>5.1</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="13">
         <v>0.4</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="12">
         <v>5500.0</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="12">
         <v>559.2</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="13">
         <v>4.2</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>21655.0</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>1059.9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
         <v>47.1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>1.7</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="12">
         <v>12600.0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>768.6</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <v>27.4</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="13">
         <v>1.5</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="12">
         <v>1855.0</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="12">
         <v>347.2</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="13">
         <v>4.0</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="13">
         <v>0.7</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="12">
         <v>5730.0</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="12">
         <v>557.6</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="13">
         <v>12.5</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="13">
         <v>1.2</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="12">
         <v>1470.0</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="12">
         <v>283.0</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="13">
         <v>3.2</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="7">
         <v>330572.0</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>3863.9</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>13.3</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>0.1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>223214.0</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>3080.1</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>9.0</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>0.1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="7">
         <v>25140.0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>1380.7</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="8">
         <v>1.0</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="8">
         <v>0.1</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="7">
         <v>55248.0</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="7">
         <v>1633.2</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="8">
         <v>2.2</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="8">
         <v>0.1</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="7">
         <v>26970.0</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="7">
         <v>1202.7</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="8">
         <v>1.1</v>
       </c>
-      <c r="U21" s="8" t="s">
+      <c r="U21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>13150.0</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <v>758.6</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="13">
         <v>9.0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="13">
         <v>0.5</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="12">
         <v>9340.0</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="12">
         <v>630.1</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>6.4</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <v>0.4</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="12">
         <v>800.0</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="12">
         <v>163.4</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="13">
         <v>0.5</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="13">
         <v>0.1</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="12">
         <v>2090.0</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="12">
         <v>314.6</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="13">
         <v>0.2</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="12">
         <v>920.0</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="12">
         <v>200.5</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="13">
         <v>0.6</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>6550.0</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="12">
         <v>531.9</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <v>19.4</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="13">
         <v>1.5</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="12">
         <v>5515.0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="12">
         <v>474.3</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="13">
         <v>16.4</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="13">
         <v>1.3</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="12">
         <v>185.0</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="12">
         <v>80.0</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="13">
         <v>0.6</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="13">
         <v>0.2</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="12">
         <v>375.0</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="12">
         <v>103.5</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="13">
         <v>1.1</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="13">
         <v>0.3</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="12">
         <v>475.0</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="12">
         <v>162.6</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="13">
         <v>1.4</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>13825.0</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <v>848.9</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="13">
         <v>11.6</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="13">
         <v>0.7</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="12">
         <v>9320.0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <v>690.9</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <v>7.8</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="13">
         <v>0.6</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="12">
         <v>805.0</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="12">
         <v>217.0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="13">
         <v>0.7</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="13">
         <v>0.2</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="12">
         <v>2720.0</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="12">
         <v>363.2</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="13">
         <v>2.3</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="13">
         <v>0.3</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="12">
         <v>980.0</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="12">
         <v>216.2</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="13">
         <v>0.8</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>2300.0</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <v>340.2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <v>14.4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="13">
         <v>1.8</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="12">
         <v>1420.0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <v>228.2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="13">
         <v>8.9</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="13">
         <v>1.3</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="12">
         <v>120.0</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="12">
         <v>91.4</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="13">
         <v>0.7</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="13">
         <v>0.6</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="12">
         <v>675.0</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="12">
         <v>174.0</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="13">
         <v>4.2</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="13">
         <v>1.1</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="12">
         <v>90.0</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="12">
         <v>56.6</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="13">
         <v>0.6</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>8365.0</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <v>701.1</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="13">
         <v>15.1</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="13">
         <v>1.1</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="12">
         <v>5725.0</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="12">
         <v>555.5</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="13">
         <v>10.4</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="13">
         <v>0.9</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="12">
         <v>465.0</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="12">
         <v>149.8</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="13">
         <v>0.8</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="13">
         <v>0.3</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="12">
         <v>1705.0</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="12">
         <v>271.1</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="13">
         <v>3.1</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="13">
         <v>0.5</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="12">
         <v>470.0</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="12">
         <v>154.9</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="13">
         <v>0.8</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>36255.0</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>1315.8</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <v>12.5</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="13">
         <v>0.4</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="12">
         <v>25800.0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="12">
         <v>996.9</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="13">
         <v>8.9</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="13">
         <v>0.3</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="12">
         <v>2010.0</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="12">
         <v>345.8</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="13">
         <v>0.7</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="13">
         <v>0.1</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="12">
         <v>5420.0</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="12">
         <v>464.3</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="13">
         <v>1.9</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="13">
         <v>0.2</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="12">
         <v>3020.0</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="12">
         <v>368.7</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="13">
         <v>1.0</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>8220.0</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>578.2</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <v>15.7</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="13">
         <v>1.0</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="12">
         <v>3915.0</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="12">
         <v>345.1</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="13">
         <v>7.5</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="13">
         <v>0.7</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="12">
         <v>630.0</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="12">
         <v>249.1</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="13">
         <v>1.2</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="13">
         <v>0.5</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="12">
         <v>3255.0</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="12">
         <v>437.4</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="13">
         <v>6.2</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="13">
         <v>0.8</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="12">
         <v>420.0</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="12">
         <v>164.8</v>
       </c>
-      <c r="T28" s="12">
+      <c r="T28" s="13">
         <v>0.8</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>17030.0</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>918.8</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="13">
         <v>8.7</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="13">
         <v>0.4</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="12">
         <v>9105.0</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="12">
         <v>648.4</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="13">
         <v>4.6</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="13">
         <v>0.3</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="12">
         <v>1530.0</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="12">
         <v>320.4</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="13">
         <v>0.8</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="13">
         <v>0.2</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="12">
         <v>5225.0</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="12">
         <v>506.0</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="13">
         <v>2.7</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="13">
         <v>0.2</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="12">
         <v>1170.0</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="12">
         <v>204.6</v>
       </c>
-      <c r="T29" s="12">
+      <c r="T29" s="13">
         <v>0.6</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>7645.0</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>587.7</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
         <v>26.5</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="13">
         <v>1.8</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="12">
         <v>6050.0</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="12">
         <v>555.0</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="13">
         <v>21.0</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="13">
         <v>1.8</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="12">
         <v>370.0</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="12">
         <v>130.7</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="13">
         <v>1.3</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="13">
         <v>0.4</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="12">
         <v>800.0</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="12">
         <v>192.7</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="13">
         <v>2.8</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="13">
         <v>0.7</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="12">
         <v>435.0</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="12">
         <v>135.5</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T30" s="13">
         <v>1.5</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>34920.0</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>1105.2</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="13">
         <v>20.0</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="13">
         <v>0.5</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="12">
         <v>24025.0</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="12">
         <v>894.5</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="13">
         <v>13.7</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="13">
         <v>0.5</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="12">
         <v>3090.0</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="12">
         <v>441.4</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="13">
         <v>1.8</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="13">
         <v>0.2</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="12">
         <v>4835.0</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="12">
         <v>515.2</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="13">
         <v>2.8</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="Q31" s="13">
         <v>0.3</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="12">
         <v>2975.0</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="12">
         <v>431.2</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="13">
         <v>1.7</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>4130.0</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>439.4</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="13">
         <v>12.7</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="13">
         <v>1.2</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="12">
         <v>2765.0</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="12">
         <v>344.5</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="13">
         <v>8.5</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="13">
         <v>1.0</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="12">
         <v>180.0</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="12">
         <v>87.6</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="13">
         <v>0.6</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="13">
         <v>0.3</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="12">
         <v>820.0</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="12">
         <v>201.7</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="13">
         <v>2.5</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="13">
         <v>0.6</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="12">
         <v>365.0</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="12">
         <v>147.6</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="13">
         <v>1.1</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>16810.0</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>823.0</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="13">
         <v>7.4</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="13">
         <v>0.3</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="12">
         <v>11910.0</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="12">
         <v>718.6</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="13">
         <v>5.3</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="13">
         <v>0.3</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="12">
         <v>1150.0</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="12">
         <v>246.9</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="13">
         <v>0.5</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="13">
         <v>0.1</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="12">
         <v>2785.0</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="12">
         <v>374.7</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="13">
         <v>1.2</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="13">
         <v>0.2</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="12">
         <v>960.0</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="12">
         <v>220.8</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="13">
         <v>0.4</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="12">
         <v>4420.0</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="12">
         <v>559.4</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="13">
         <v>12.0</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="13">
         <v>1.4</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="12">
         <v>2730.0</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="12">
         <v>376.7</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="13">
         <v>7.4</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="13">
         <v>1.0</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="12">
         <v>490.0</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="12">
         <v>262.3</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="13">
         <v>1.3</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="13">
         <v>0.7</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="12">
         <v>700.0</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="12">
         <v>215.9</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="13">
         <v>1.9</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="13">
         <v>0.6</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="12">
         <v>500.0</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="12">
         <v>209.3</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="13">
         <v>1.4</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="12">
         <v>61040.0</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>1484.0</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="13">
         <v>12.3</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="13">
         <v>0.3</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="12">
         <v>38510.0</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="12">
         <v>1090.4</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="13">
         <v>7.8</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="13">
         <v>0.2</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="12">
         <v>3950.0</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="12">
         <v>572.2</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="13">
         <v>0.8</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="13">
         <v>0.1</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="12">
         <v>14175.0</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="12">
         <v>798.7</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="13">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="13">
         <v>0.2</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="12">
         <v>4405.0</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="12">
         <v>420.5</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="13">
         <v>0.9</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <v>26785.0</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="12">
         <v>1046.8</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="13">
         <v>18.7</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="13">
         <v>0.7</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <v>20815.0</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="12">
         <v>902.9</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="13">
         <v>14.5</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="13">
         <v>0.6</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="12">
         <v>1335.0</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="12">
         <v>281.5</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="13">
         <v>0.9</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="13">
         <v>0.2</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="12">
         <v>2030.0</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="12">
         <v>340.4</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="13">
         <v>1.4</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="13">
         <v>0.2</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="12">
         <v>2605.0</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="12">
         <v>406.8</v>
       </c>
-      <c r="T36" s="12">
+      <c r="T36" s="13">
         <v>1.8</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>61450.0</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>1456.7</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="13">
         <v>17.4</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="13">
         <v>0.4</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <v>40080.0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="12">
         <v>1263.8</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="13">
         <v>11.3</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="13">
         <v>0.4</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="12">
         <v>7650.0</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="12">
         <v>663.3</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="13">
         <v>2.2</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="13">
         <v>0.2</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="12">
         <v>7115.0</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="12">
         <v>511.9</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="13">
         <v>2.0</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="13">
         <v>0.2</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="12">
         <v>6605.0</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="12">
         <v>498.9</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="13">
         <v>1.9</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="12">
         <v>5220.0</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <v>564.2</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="13">
         <v>9.1</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="13">
         <v>0.9</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <v>4215.0</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="12">
         <v>482.1</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="13">
         <v>7.3</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="13">
         <v>0.8</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="12">
         <v>315.0</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="12">
         <v>111.5</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="13">
         <v>0.5</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="13">
         <v>0.2</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="12">
         <v>280.0</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="12">
         <v>127.2</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="13">
         <v>0.5</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="13">
         <v>0.2</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="12">
         <v>415.0</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="12">
         <v>139.8</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="13">
         <v>0.7</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="12">
         <v>2450.0</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>308.0</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="13">
         <v>7.2</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="13">
         <v>0.9</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <v>1975.0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="12">
         <v>283.1</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="13">
         <v>5.8</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="13">
         <v>0.8</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="12">
         <v>65.0</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="12">
         <v>62.0</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="13">
         <v>0.2</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="13">
         <v>0.2</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="12">
         <v>250.0</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="12">
         <v>93.5</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="13">
         <v>0.7</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="13">
         <v>0.3</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="12">
         <v>160.0</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="12">
         <v>77.7</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="13">
         <v>0.5</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="7">
         <v>121796.0</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="7">
         <v>2648.6</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>46.3</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>0.6</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="7">
         <v>82292.0</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="7">
         <v>2120.1</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="8">
         <v>31.3</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="8">
         <v>0.6</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="7">
         <v>6020.0</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="7">
         <v>582.9</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="8">
         <v>2.3</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="8">
         <v>0.2</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="7">
         <v>25992.0</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="7">
         <v>1037.6</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="8">
         <v>9.9</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="8">
         <v>0.4</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="7">
         <v>7492.0</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="7">
         <v>616.4</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="8">
         <v>2.8</v>
       </c>
-      <c r="U40" s="8">
+      <c r="U40" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <v>9060.0</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <v>633.2</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="13">
         <v>49.8</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="13">
         <v>2.3</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="12">
         <v>6905.0</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="12">
         <v>566.3</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="13">
         <v>37.9</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="13">
         <v>2.3</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="12">
         <v>555.0</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="12">
         <v>191.6</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="13">
         <v>3.0</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="13">
         <v>1.0</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="12">
         <v>1005.0</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="12">
         <v>199.4</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="13">
         <v>5.5</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="13">
         <v>1.1</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="12">
         <v>595.0</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="12">
         <v>174.1</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="13">
         <v>3.3</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="14">
         <v>0.9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="12">
         <v>7715.0</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <v>605.3</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="13">
         <v>33.2</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="13">
         <v>2.0</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="12">
         <v>6155.0</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="12">
         <v>571.4</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="13">
         <v>26.5</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="13">
         <v>2.1</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="12">
         <v>295.0</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="12">
         <v>123.7</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="13">
         <v>1.3</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="13">
         <v>0.5</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="12">
         <v>780.0</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="12">
         <v>167.5</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="13">
         <v>3.4</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="13">
         <v>0.7</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="12">
         <v>485.0</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="12">
         <v>149.2</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="13">
         <v>2.1</v>
       </c>
-      <c r="U42" s="13">
+      <c r="U42" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="12">
         <v>32300.0</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="12">
         <v>1328.3</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="13">
         <v>47.1</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="13">
         <v>1.2</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="12">
         <v>24480.0</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="12">
         <v>1162.7</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="13">
         <v>35.7</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="13">
         <v>1.2</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="12">
         <v>1445.0</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="12">
         <v>305.6</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="13">
         <v>2.1</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="13">
         <v>0.4</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="12">
         <v>4530.0</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="12">
         <v>407.4</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="13">
         <v>6.6</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="13">
         <v>0.6</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R43" s="12">
         <v>1845.0</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S43" s="12">
         <v>309.1</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="13">
         <v>2.7</v>
       </c>
-      <c r="U43" s="13">
+      <c r="U43" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="12">
         <v>4315.0</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="12">
         <v>407.7</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="13">
         <v>21.5</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="13">
         <v>1.8</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="12">
         <v>4045.0</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="12">
         <v>385.2</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="13">
         <v>20.1</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="13">
         <v>1.7</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="12">
         <v>60.0</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="12">
         <v>43.1</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="13">
         <v>0.3</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="13">
         <v>0.2</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="12">
         <v>35.0</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="12">
         <v>27.1</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="13">
         <v>0.2</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="13">
         <v>0.1</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="12">
         <v>180.0</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S44" s="12">
         <v>101.4</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="13">
         <v>0.9</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="12">
         <v>68405.0</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="12">
         <v>1871.3</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="13">
         <v>51.4</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="13">
         <v>0.8</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="12">
         <v>40710.0</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="12">
         <v>1372.6</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="13">
         <v>30.6</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="13">
         <v>0.8</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="12">
         <v>3665.0</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="12">
         <v>435.0</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="13">
         <v>2.8</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="13">
         <v>0.3</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="12">
         <v>19640.0</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="12">
         <v>963.9</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="13">
         <v>14.7</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="13">
         <v>0.6</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="12">
         <v>4385.0</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="12">
         <v>495.4</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="13">
         <v>3.3</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="7">
         <v>135025.0</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="7">
         <v>2820.1</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>36.8</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>0.5</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
         <v>89840.0</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>2111.4</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="8">
         <v>24.5</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="8">
         <v>0.4</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="7">
         <v>6935.0</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="7">
         <v>663.9</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="8">
         <v>1.9</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="8">
         <v>0.2</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="7">
         <v>30769.0</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="7">
         <v>960.8</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="8">
         <v>8.4</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="8">
         <v>0.2</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="7">
         <v>7481.0</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="7">
         <v>588.9</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="8">
         <v>2.0</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="12">
         <v>1810.0</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="12">
         <v>291.1</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="13">
         <v>17.9</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="13">
         <v>2.4</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="12">
         <v>1250.0</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="12">
         <v>213.1</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="13">
         <v>12.4</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="13">
         <v>1.9</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="12">
         <v>90.0</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="12">
         <v>71.2</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="13">
         <v>0.9</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="13">
         <v>0.7</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="12">
         <v>410.0</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="12">
         <v>165.8</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="13">
         <v>4.1</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="13">
         <v>1.6</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="12">
         <v>60.0</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="12">
         <v>47.6</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="13">
         <v>0.6</v>
       </c>
-      <c r="U47" s="13">
+      <c r="U47" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="12">
         <v>1635.0</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="12">
         <v>273.1</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="13">
         <v>16.6</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="13">
         <v>2.5</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="12">
         <v>1310.0</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="12">
         <v>231.8</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="13">
         <v>13.3</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="13">
         <v>2.1</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="12">
         <v>35.0</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="12">
         <v>37.3</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="13">
         <v>0.4</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="13">
         <v>0.4</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="12">
         <v>165.0</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="12">
         <v>97.5</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P48" s="13">
         <v>1.7</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q48" s="13">
         <v>1.0</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="12">
         <v>125.0</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="12">
         <v>86.8</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="13">
         <v>1.3</v>
       </c>
-      <c r="U48" s="13">
+      <c r="U48" s="14">
         <v>0.9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="12">
         <v>29205.0</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="12">
         <v>1200.8</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="13">
         <v>38.1</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="13">
         <v>1.0</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="12">
         <v>17980.0</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="12">
         <v>963.8</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="13">
         <v>23.5</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="13">
         <v>1.0</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="12">
         <v>2625.0</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="12">
         <v>373.6</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="13">
         <v>3.4</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="13">
         <v>0.5</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="12">
         <v>6885.0</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="12">
         <v>566.2</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="13">
         <v>9.0</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q49" s="13">
         <v>0.7</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R49" s="12">
         <v>1715.0</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="12">
         <v>263.5</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T49" s="13">
         <v>2.2</v>
       </c>
-      <c r="U49" s="13">
+      <c r="U49" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="12">
         <v>21530.0</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="12">
         <v>1065.8</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="13">
         <v>30.7</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="13">
         <v>1.1</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="12">
         <v>18290.0</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="12">
         <v>941.9</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="13">
         <v>26.1</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="13">
         <v>1.1</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="12">
         <v>935.0</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="12">
         <v>229.0</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="13">
         <v>1.3</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="13">
         <v>0.3</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="12">
         <v>1105.0</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O50" s="12">
         <v>209.8</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P50" s="13">
         <v>1.6</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q50" s="13">
         <v>0.3</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R50" s="12">
         <v>1200.0</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S50" s="12">
         <v>264.8</v>
       </c>
-      <c r="T50" s="12">
+      <c r="T50" s="13">
         <v>1.7</v>
       </c>
-      <c r="U50" s="13">
+      <c r="U50" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="12">
         <v>80840.0</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="12">
         <v>1970.7</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="13">
         <v>40.4</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="13">
         <v>0.7</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="12">
         <v>51010.0</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="12">
         <v>1528.9</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="13">
         <v>25.5</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="13">
         <v>0.6</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="12">
         <v>3250.0</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="12">
         <v>419.7</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="13">
         <v>1.6</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="13">
         <v>0.2</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="12">
         <v>22205.0</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="12">
         <v>806.2</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P51" s="13">
         <v>11.1</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="Q51" s="13">
         <v>0.4</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R51" s="12">
         <v>4375.0</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S51" s="12">
         <v>450.3</v>
       </c>
-      <c r="T51" s="12">
+      <c r="T51" s="13">
         <v>2.2</v>
       </c>
-      <c r="U51" s="13">
+      <c r="U51" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="7">
         <v>175938.0</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>2642.4</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>63.0</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="8">
         <v>0.6</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="7">
         <v>144560.0</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>2381.8</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="8">
         <v>51.8</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="8">
         <v>0.6</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="7">
         <v>9787.0</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="7">
         <v>783.3</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="8">
         <v>3.5</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="8">
         <v>0.3</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="7">
         <v>8156.0</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="7">
         <v>642.0</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="8">
         <v>2.9</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="8">
         <v>0.2</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="7">
         <v>13435.0</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="7">
         <v>878.7</v>
       </c>
-      <c r="T52" s="7">
+      <c r="T52" s="8">
         <v>4.8</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="9">
         <v>0.3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="12">
         <v>7815.0</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="12">
         <v>545.5</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="13">
         <v>33.0</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="13">
         <v>1.7</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="12">
         <v>5380.0</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="12">
         <v>455.9</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="13">
         <v>22.7</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="13">
         <v>1.6</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="12">
         <v>520.0</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="12">
         <v>163.6</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="13">
         <v>2.2</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="13">
         <v>0.7</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N53" s="12">
         <v>1350.0</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O53" s="12">
         <v>261.9</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P53" s="13">
         <v>5.7</v>
       </c>
-      <c r="Q53" s="12">
+      <c r="Q53" s="13">
         <v>1.1</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="12">
         <v>570.0</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S53" s="12">
         <v>184.2</v>
       </c>
-      <c r="T53" s="12">
+      <c r="T53" s="13">
         <v>2.4</v>
       </c>
-      <c r="U53" s="13">
+      <c r="U53" s="14">
         <v>0.8</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="12">
         <v>137870.0</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="12">
         <v>2294.0</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="13">
         <v>71.3</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="13">
         <v>0.6</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="12">
         <v>115815.0</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="12">
         <v>2230.8</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="13">
         <v>59.9</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="13">
         <v>0.8</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="12">
         <v>6955.0</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="12">
         <v>643.8</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="13">
         <v>3.6</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="13">
         <v>0.3</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N54" s="12">
         <v>4940.0</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="12">
         <v>491.9</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P54" s="13">
         <v>2.6</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="Q54" s="13">
         <v>0.3</v>
       </c>
-      <c r="R54" s="11">
+      <c r="R54" s="12">
         <v>10160.0</v>
       </c>
-      <c r="S54" s="11">
+      <c r="S54" s="12">
         <v>826.5</v>
       </c>
-      <c r="T54" s="12">
+      <c r="T54" s="13">
         <v>5.3</v>
       </c>
-      <c r="U54" s="13">
+      <c r="U54" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="12">
         <v>8950.0</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="12">
         <v>657.1</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="13">
         <v>41.4</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="13">
         <v>2.5</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="12">
         <v>6930.0</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="12">
         <v>653.1</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="13">
         <v>32.1</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="13">
         <v>2.6</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="12">
         <v>690.0</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="12">
         <v>172.9</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="13">
         <v>3.2</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="13">
         <v>0.8</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="12">
         <v>690.0</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="12">
         <v>189.8</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="13">
         <v>3.2</v>
       </c>
-      <c r="Q55" s="12">
+      <c r="Q55" s="13">
         <v>0.9</v>
       </c>
-      <c r="R55" s="11">
+      <c r="R55" s="12">
         <v>645.0</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S55" s="12">
         <v>158.2</v>
       </c>
-      <c r="T55" s="12">
+      <c r="T55" s="13">
         <v>3.0</v>
       </c>
-      <c r="U55" s="13">
+      <c r="U55" s="14">
         <v>0.7</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="12">
         <v>21295.0</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="12">
         <v>938.9</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="13">
         <v>52.3</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="13">
         <v>1.7</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="12">
         <v>16435.0</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="12">
         <v>826.2</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="13">
         <v>40.3</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="13">
         <v>1.7</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="12">
         <v>1620.0</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="12">
         <v>278.7</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="13">
         <v>4.0</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="13">
         <v>0.7</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N56" s="12">
         <v>1180.0</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="12">
         <v>219.5</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P56" s="13">
         <v>2.9</v>
       </c>
-      <c r="Q56" s="12">
+      <c r="Q56" s="13">
         <v>0.5</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R56" s="12">
         <v>2060.0</v>
       </c>
-      <c r="S56" s="11">
+      <c r="S56" s="12">
         <v>298.0</v>
       </c>
-      <c r="T56" s="12">
+      <c r="T56" s="13">
         <v>5.1</v>
       </c>
-      <c r="U56" s="13">
+      <c r="U56" s="14">
         <v>0.7</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="7">
         <v>106219.0</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="7">
         <v>2383.9</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="8">
         <v>40.9</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>0.7</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="7">
         <v>72913.0</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="7">
         <v>1870.1</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="8">
         <v>28.1</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="8">
         <v>0.6</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="7">
         <v>10895.0</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="7">
         <v>748.1</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="8">
         <v>4.2</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="8">
         <v>0.3</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="7">
         <v>11412.0</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="7">
         <v>718.7</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="8">
         <v>4.4</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="8">
         <v>0.3</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="7">
         <v>10999.0</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="7">
         <v>816.9</v>
       </c>
-      <c r="T57" s="7">
+      <c r="T57" s="8">
         <v>4.2</v>
       </c>
-      <c r="U57" s="8">
+      <c r="U57" s="9">
         <v>0.3</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="12">
         <v>11955.0</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="12">
         <v>741.1</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="13">
         <v>40.0</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="13">
         <v>2.0</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="12">
         <v>8760.0</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="12">
         <v>587.6</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="13">
         <v>29.3</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="13">
         <v>1.8</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="12">
         <v>970.0</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="12">
         <v>262.3</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="13">
         <v>3.2</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="13">
         <v>0.9</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="12">
         <v>575.0</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="12">
         <v>147.9</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="13">
         <v>1.9</v>
       </c>
-      <c r="Q58" s="12">
+      <c r="Q58" s="13">
         <v>0.5</v>
       </c>
-      <c r="R58" s="11">
+      <c r="R58" s="12">
         <v>1655.0</v>
       </c>
-      <c r="S58" s="11">
+      <c r="S58" s="12">
         <v>300.3</v>
       </c>
-      <c r="T58" s="12">
+      <c r="T58" s="13">
         <v>5.5</v>
       </c>
-      <c r="U58" s="13">
+      <c r="U58" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="12">
         <v>7880.0</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="12">
         <v>619.2</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="13">
         <v>46.7</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="13">
         <v>2.2</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="12">
         <v>5150.0</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="12">
         <v>472.6</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="13">
         <v>30.5</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="13">
         <v>2.2</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="12">
         <v>610.0</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="12">
         <v>185.3</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="13">
         <v>3.6</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="13">
         <v>1.0</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N59" s="12">
         <v>1105.0</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="12">
         <v>236.2</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="13">
         <v>6.6</v>
       </c>
-      <c r="Q59" s="12">
+      <c r="Q59" s="13">
         <v>1.3</v>
       </c>
-      <c r="R59" s="11">
+      <c r="R59" s="12">
         <v>1015.0</v>
       </c>
-      <c r="S59" s="11">
+      <c r="S59" s="12">
         <v>226.6</v>
       </c>
-      <c r="T59" s="12">
+      <c r="T59" s="13">
         <v>6.0</v>
       </c>
-      <c r="U59" s="13">
+      <c r="U59" s="14">
         <v>1.3</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="12">
         <v>18645.0</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="12">
         <v>897.2</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="13">
         <v>31.3</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="13">
         <v>1.3</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="12">
         <v>13005.0</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="12">
         <v>778.4</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="13">
         <v>21.8</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="13">
         <v>1.2</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="12">
         <v>2865.0</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="12">
         <v>376.3</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="13">
         <v>4.8</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="13">
         <v>0.6</v>
       </c>
-      <c r="N60" s="11">
+      <c r="N60" s="12">
         <v>1585.0</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O60" s="12">
         <v>268.5</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60" s="13">
         <v>2.7</v>
       </c>
-      <c r="Q60" s="12">
+      <c r="Q60" s="13">
         <v>0.4</v>
       </c>
-      <c r="R60" s="11">
+      <c r="R60" s="12">
         <v>1190.0</v>
       </c>
-      <c r="S60" s="11">
+      <c r="S60" s="12">
         <v>265.8</v>
       </c>
-      <c r="T60" s="12">
+      <c r="T60" s="13">
         <v>2.0</v>
       </c>
-      <c r="U60" s="13">
+      <c r="U60" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="12">
         <v>4420.0</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="12">
         <v>526.4</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="13">
         <v>24.0</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="13">
         <v>2.4</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="12">
         <v>3370.0</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="12">
         <v>424.3</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="13">
         <v>18.3</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="13">
         <v>2.0</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="12">
         <v>445.0</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="12">
         <v>192.9</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="13">
         <v>2.4</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="13">
         <v>1.0</v>
       </c>
-      <c r="N61" s="11">
+      <c r="N61" s="12">
         <v>190.0</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O61" s="12">
         <v>98.1</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="13">
         <v>1.0</v>
       </c>
-      <c r="Q61" s="12">
+      <c r="Q61" s="13">
         <v>0.5</v>
       </c>
-      <c r="R61" s="11">
+      <c r="R61" s="12">
         <v>415.0</v>
       </c>
-      <c r="S61" s="11">
+      <c r="S61" s="12">
         <v>141.7</v>
       </c>
-      <c r="T61" s="12">
+      <c r="T61" s="13">
         <v>2.2</v>
       </c>
-      <c r="U61" s="13">
+      <c r="U61" s="14">
         <v>0.8</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="12">
         <v>63320.0</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="12">
         <v>1874.9</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="13">
         <v>46.9</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="13">
         <v>0.8</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="12">
         <v>42630.0</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="12">
         <v>1495.3</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="13">
         <v>31.6</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="13">
         <v>0.8</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="12">
         <v>6005.0</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="12">
         <v>532.8</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="13">
         <v>4.4</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="13">
         <v>0.4</v>
       </c>
-      <c r="N62" s="11">
+      <c r="N62" s="12">
         <v>7955.0</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O62" s="12">
         <v>558.3</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="13">
         <v>5.9</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q62" s="13">
         <v>0.4</v>
       </c>
-      <c r="R62" s="11">
+      <c r="R62" s="12">
         <v>6725.0</v>
       </c>
-      <c r="S62" s="11">
+      <c r="S62" s="12">
         <v>615.7</v>
       </c>
-      <c r="T62" s="12">
+      <c r="T62" s="13">
         <v>5.0</v>
       </c>
-      <c r="U62" s="12">
+      <c r="U62" s="13">
         <v>0.4</v>
       </c>
     </row>
